--- a/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-09-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,6 +956,129 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DV</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Chia Seeds - Black</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>125.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>125.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Palmer/Sysco</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Jam - Strawberry</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mustard - Honey</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nuts - Walnut Halves &amp; Pieces</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Flour - Millers Choice</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/Ithaca Bakery/Ithaca Bakery_Triphammer_2025-09-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,29 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sani-T-10 Sanitizer</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>107.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>107.36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
